--- a/static/downloads/2021/WMRRA-2021-Final-Points-09192021.xlsx
+++ b/static/downloads/2021/WMRRA-2021-Final-Points-09192021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crwilcox\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\crwilcox\workspace\wmrra-com\static\downloads\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E535133-F5E2-48C4-8DDD-E1C4B1681D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8B33B-FBD8-4991-9507-64C8D7F60C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="10044" xr2:uid="{58302ADD-EE14-46B2-B8AB-B8706E5B8C2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{58302ADD-EE14-46B2-B8AB-B8706E5B8C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 Championship" sheetId="1" r:id="rId1"/>
@@ -620,15 +620,9 @@
     <t>Dave "Down Here" Pearce</t>
   </si>
   <si>
-    <t>Paul "StaysHomesy" McComsey</t>
-  </si>
-  <si>
     <t>Scott "Mr. Hair" Harris</t>
   </si>
   <si>
-    <t>Chris "Badger" Wilcox</t>
-  </si>
-  <si>
     <t>Joel "Pink's My Color" Ohman</t>
   </si>
   <si>
@@ -636,6 +630,12 @@
   </si>
   <si>
     <t>Seppi "T-Rex" Hutter</t>
+  </si>
+  <si>
+    <t>Paul "Racing's in the Rearview" McComsey</t>
+  </si>
+  <si>
+    <t>Chris "Bagel Badger" Wilcox</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2038,10 @@
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3047,7 +3047,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="140">
@@ -3722,7 +3722,7 @@
         <v>152</v>
       </c>
       <c r="C43" s="135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -3838,7 +3838,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31">
@@ -3983,7 +3983,7 @@
         <v>92</v>
       </c>
       <c r="C50" s="131" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="30">
@@ -4450,7 +4450,7 @@
         <v>253</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="140">
@@ -5428,7 +5428,7 @@
         <v>810</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>

--- a/static/downloads/2021/WMRRA-2021-Final-Points-09192021.xlsx
+++ b/static/downloads/2021/WMRRA-2021-Final-Points-09192021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\crwilcox\workspace\wmrra-com\static\downloads\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crwilcox\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8B33B-FBD8-4991-9507-64C8D7F60C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD285D6F-EB28-4B88-AD06-07D85F52FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{58302ADD-EE14-46B2-B8AB-B8706E5B8C2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{58302ADD-EE14-46B2-B8AB-B8706E5B8C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 Championship" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="187">
   <si>
     <t>Overall Position</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Top 2 Classes</t>
   </si>
   <si>
-    <t>The Robot Robarts</t>
-  </si>
-  <si>
     <t>62X</t>
   </si>
   <si>
@@ -155,321 +152,309 @@
     <t>Andy Halbert</t>
   </si>
   <si>
+    <t>Miles McElhany</t>
+  </si>
+  <si>
+    <t>Micah Kudo</t>
+  </si>
+  <si>
+    <t>Jonathan Hudak</t>
+  </si>
+  <si>
+    <t>Kevin Nanthrup</t>
+  </si>
+  <si>
+    <t>Sean Cresap</t>
+  </si>
+  <si>
+    <t>Jeff Lane</t>
+  </si>
+  <si>
+    <t>Zach Halbert</t>
+  </si>
+  <si>
+    <t>Darrin Griffin</t>
+  </si>
+  <si>
+    <t>Philip Melnyk</t>
+  </si>
+  <si>
+    <t>Dave Heinricks</t>
+  </si>
+  <si>
+    <t>Kumpy Kump</t>
+  </si>
+  <si>
+    <t>Donald Williams</t>
+  </si>
+  <si>
+    <t>Andrew Kapaldo</t>
+  </si>
+  <si>
+    <t>Joe Pittman</t>
+  </si>
+  <si>
+    <t>Robert Stine</t>
+  </si>
+  <si>
+    <t>Tico Sandoval</t>
+  </si>
+  <si>
+    <t>Paul Gienau</t>
+  </si>
+  <si>
+    <t>Adam Fausett</t>
+  </si>
+  <si>
+    <t>Brian Burchill</t>
+  </si>
+  <si>
+    <t>Jacob Brown</t>
+  </si>
+  <si>
+    <t>Ryan Cresap</t>
+  </si>
+  <si>
+    <t>David Kohlstaedt</t>
+  </si>
+  <si>
+    <t>Mallory Dobbs</t>
+  </si>
+  <si>
+    <t>Ryan Doherty</t>
+  </si>
+  <si>
+    <t>Brian Pinkstaff</t>
+  </si>
+  <si>
+    <t>Cedric Smith</t>
+  </si>
+  <si>
+    <t>Dave Oster</t>
+  </si>
+  <si>
+    <t>Zachary Smith</t>
+  </si>
+  <si>
+    <t>Matthew Winter</t>
+  </si>
+  <si>
+    <t>Jay Brown</t>
+  </si>
+  <si>
+    <t>Matthew Wichgers</t>
+  </si>
+  <si>
+    <t>Gary Ryder</t>
+  </si>
+  <si>
+    <t>Matthew White</t>
+  </si>
+  <si>
+    <t>Jenny Kay</t>
+  </si>
+  <si>
+    <t>Joel Ohman</t>
+  </si>
+  <si>
+    <t>Cliff Griffin</t>
+  </si>
+  <si>
+    <t>Dustin Walbon</t>
+  </si>
+  <si>
+    <t>Andy Moore</t>
+  </si>
+  <si>
+    <t>Ron Rudy</t>
+  </si>
+  <si>
+    <t>CJ Hobbs</t>
+  </si>
+  <si>
+    <t>Micah Smith</t>
+  </si>
+  <si>
+    <t>Arash Nadershahi, M.D.</t>
+  </si>
+  <si>
+    <t>Nick Hawson</t>
+  </si>
+  <si>
+    <t>Keith Stone</t>
+  </si>
+  <si>
+    <t>John Bartlett</t>
+  </si>
+  <si>
+    <t>Tim Fowler</t>
+  </si>
+  <si>
+    <t>Simon Smith</t>
+  </si>
+  <si>
+    <t>Sunshine Goddard</t>
+  </si>
+  <si>
+    <t>Matt Taylor</t>
+  </si>
+  <si>
+    <t>Loren DeShon</t>
+  </si>
+  <si>
+    <t>Tiny Fulbright</t>
+  </si>
+  <si>
+    <t>Jake Monson</t>
+  </si>
+  <si>
+    <t>Sergio Gingerich</t>
+  </si>
+  <si>
+    <t>Joseph Palmeri</t>
+  </si>
+  <si>
+    <t>Christopher Ritnoppakun</t>
+  </si>
+  <si>
+    <t>Becky Smith</t>
+  </si>
+  <si>
+    <t>Luke O'Brien</t>
+  </si>
+  <si>
+    <t>Chris Eaker</t>
+  </si>
+  <si>
+    <t>Perry Lund</t>
+  </si>
+  <si>
+    <t>Billy White</t>
+  </si>
+  <si>
+    <t>Kent Swendseid</t>
+  </si>
+  <si>
+    <t>Dion LaBlue</t>
+  </si>
+  <si>
+    <t>Drew Lenihan</t>
+  </si>
+  <si>
+    <t>David Bostashvili</t>
+  </si>
+  <si>
+    <t>Gavin Soderholm</t>
+  </si>
+  <si>
+    <t>Kevin O'Neil</t>
+  </si>
+  <si>
+    <t>Howard Nusbaum</t>
+  </si>
+  <si>
+    <t>Chris Burgess</t>
+  </si>
+  <si>
+    <t>Stephen Phillips</t>
+  </si>
+  <si>
+    <t>Joe Van Patten</t>
+  </si>
+  <si>
+    <t>Rich Kim</t>
+  </si>
+  <si>
+    <t>John Vento</t>
+  </si>
+  <si>
+    <t>Aleksandr Kibis</t>
+  </si>
+  <si>
+    <t>Pete Markey</t>
+  </si>
+  <si>
+    <t>Ryan Parlin</t>
+  </si>
+  <si>
+    <t>Matthew Kitchell</t>
+  </si>
+  <si>
+    <t>Brent Dwyer Love</t>
+  </si>
+  <si>
+    <t>Eric Moore</t>
+  </si>
+  <si>
+    <t>Patrick Ball</t>
+  </si>
+  <si>
+    <t>Lucas Brown</t>
+  </si>
+  <si>
+    <t>Scott Schnider</t>
+  </si>
+  <si>
+    <t>Elijah Knoll</t>
+  </si>
+  <si>
+    <t>Aaron Vaage</t>
+  </si>
+  <si>
+    <t>Dustin Knudsen</t>
+  </si>
+  <si>
+    <t>Joseph Wright</t>
+  </si>
+  <si>
+    <t>Ginger Avenger</t>
+  </si>
+  <si>
+    <t>Stephanie Dinescu</t>
+  </si>
+  <si>
+    <t>Stacey Andrist</t>
+  </si>
+  <si>
+    <t>Brett Andrist</t>
+  </si>
+  <si>
+    <t>Jeffrey Seehorn</t>
+  </si>
+  <si>
+    <t>Scott Teuton</t>
+  </si>
+  <si>
+    <t>Duncan Craick</t>
+  </si>
+  <si>
+    <t>2021 Formula Ultra</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Chris Sarbora</t>
+  </si>
+  <si>
+    <t>Jacob Monson</t>
+  </si>
+  <si>
+    <t>2021 Formula 2</t>
+  </si>
+  <si>
+    <t>2021 Open SS</t>
+  </si>
+  <si>
+    <t>2021 Open SBK</t>
+  </si>
+  <si>
+    <t>2021 600 SS</t>
+  </si>
+  <si>
     <t>Miley McElhany</t>
   </si>
   <si>
-    <t>Micah Kudo</t>
-  </si>
-  <si>
-    <t>Jonathan Hudak</t>
-  </si>
-  <si>
-    <t>Kevin Nanthrup</t>
-  </si>
-  <si>
-    <t>Down Here Pearce</t>
-  </si>
-  <si>
-    <t>Sean Cresap</t>
-  </si>
-  <si>
-    <t>Jeff Lane</t>
-  </si>
-  <si>
-    <t>Zach Halbert</t>
-  </si>
-  <si>
-    <t>Darrin Griffin</t>
-  </si>
-  <si>
-    <t>Philip Melnyk</t>
-  </si>
-  <si>
-    <t>Dave Heinricks</t>
-  </si>
-  <si>
-    <t>Kumpy Kump</t>
-  </si>
-  <si>
-    <t>Donald Williams</t>
-  </si>
-  <si>
-    <t>Rearview McComsey</t>
-  </si>
-  <si>
-    <t>Andrew Kapaldo</t>
-  </si>
-  <si>
-    <t>Joe Pittman</t>
-  </si>
-  <si>
-    <t>Robert Stine</t>
-  </si>
-  <si>
-    <t>Tico Sandoval</t>
-  </si>
-  <si>
-    <t>Paul Gienau</t>
-  </si>
-  <si>
-    <t>Adam Fausett</t>
-  </si>
-  <si>
-    <t>Brian Burchill</t>
-  </si>
-  <si>
-    <t>Jacob Brown</t>
-  </si>
-  <si>
-    <t>Ryan Cresap</t>
-  </si>
-  <si>
-    <t>David Kohlstaedt</t>
-  </si>
-  <si>
-    <t>Mallory Dobbs</t>
-  </si>
-  <si>
-    <t>Ryan Doherty</t>
-  </si>
-  <si>
-    <t>Brian Pinkstaff</t>
-  </si>
-  <si>
-    <t>Cedric Smith</t>
-  </si>
-  <si>
-    <t>Dave Oster</t>
-  </si>
-  <si>
-    <t>Zachary Smith</t>
-  </si>
-  <si>
-    <t>Matthew Winter</t>
-  </si>
-  <si>
-    <t>Jay Brown</t>
-  </si>
-  <si>
-    <t>Matthew Wichgers</t>
-  </si>
-  <si>
-    <t>Sandbagger Wilcox</t>
-  </si>
-  <si>
-    <t>Gary Ryder</t>
-  </si>
-  <si>
-    <t>Matthew White</t>
-  </si>
-  <si>
-    <t>Jenny Kay</t>
-  </si>
-  <si>
-    <t>Joel Ohman</t>
-  </si>
-  <si>
-    <t>Cliff Griffin</t>
-  </si>
-  <si>
-    <t>Dustin Walbon</t>
-  </si>
-  <si>
-    <t>Andy Moore</t>
-  </si>
-  <si>
-    <t>Ron Rudy</t>
-  </si>
-  <si>
-    <t>CJ Hobbs</t>
-  </si>
-  <si>
-    <t>Micah Smith</t>
-  </si>
-  <si>
-    <t>Arash Nadershahi, M.D.</t>
-  </si>
-  <si>
-    <t>Nick Hawson</t>
-  </si>
-  <si>
-    <t>Keith Stone</t>
-  </si>
-  <si>
-    <t>John Bartlett</t>
-  </si>
-  <si>
-    <t>Tim Fowler</t>
-  </si>
-  <si>
-    <t>Simon Smith</t>
-  </si>
-  <si>
-    <t>Sunshine Goddard</t>
-  </si>
-  <si>
-    <t>Matt Taylor</t>
-  </si>
-  <si>
-    <t>Loren DeShon</t>
-  </si>
-  <si>
-    <t>Tiny Fulbright</t>
-  </si>
-  <si>
-    <t>Jake Monson</t>
-  </si>
-  <si>
-    <t>Sergio Gingerich</t>
-  </si>
-  <si>
-    <t>Joseph Palmeri</t>
-  </si>
-  <si>
-    <t>Christopher Ritnoppakun</t>
-  </si>
-  <si>
-    <t>Becky Smith</t>
-  </si>
-  <si>
-    <t>Angry Possum Janacek</t>
-  </si>
-  <si>
-    <t>Luke O'Brien</t>
-  </si>
-  <si>
-    <t>Chris Eaker</t>
-  </si>
-  <si>
-    <t>Perry Lund</t>
-  </si>
-  <si>
-    <t>Billy White</t>
-  </si>
-  <si>
-    <t>Kent Swendseid</t>
-  </si>
-  <si>
-    <t>Dion LaBlue</t>
-  </si>
-  <si>
-    <t>Drew Lenihan</t>
-  </si>
-  <si>
-    <t>David Bostashvili</t>
-  </si>
-  <si>
-    <t>Gavin Soderholm</t>
-  </si>
-  <si>
-    <t>Kevin O'Neil</t>
-  </si>
-  <si>
-    <t>Howard Nusbaum</t>
-  </si>
-  <si>
-    <t>Chris Burgess</t>
-  </si>
-  <si>
-    <t>Stephen Phillips</t>
-  </si>
-  <si>
-    <t>Joe Van Patten</t>
-  </si>
-  <si>
-    <t>Rich Kim</t>
-  </si>
-  <si>
-    <t>John Vento</t>
-  </si>
-  <si>
-    <t>T-Rex Hutter</t>
-  </si>
-  <si>
-    <t>Aleksandr Kibis</t>
-  </si>
-  <si>
-    <t>Pete Markey</t>
-  </si>
-  <si>
-    <t>Ryan Parlin</t>
-  </si>
-  <si>
-    <t>Matthew Kitchell</t>
-  </si>
-  <si>
-    <t>Brent Dwyer Love</t>
-  </si>
-  <si>
-    <t>Eric Moore</t>
-  </si>
-  <si>
-    <t>Patrick Ball</t>
-  </si>
-  <si>
-    <t>Lucas Brown</t>
-  </si>
-  <si>
-    <t>Scott Schnider</t>
-  </si>
-  <si>
-    <t>Elijah Knoll</t>
-  </si>
-  <si>
-    <t>Aaron Vaage</t>
-  </si>
-  <si>
-    <t>Dustin Knudsen</t>
-  </si>
-  <si>
-    <t>Joseph Wright</t>
-  </si>
-  <si>
-    <t>Ginger Avenger</t>
-  </si>
-  <si>
-    <t>Stephanie Dinescu</t>
-  </si>
-  <si>
-    <t>Stacey Andrist</t>
-  </si>
-  <si>
-    <t>Brett Andrist</t>
-  </si>
-  <si>
-    <t>Jeffrey Seehorn</t>
-  </si>
-  <si>
-    <t>Scott Teuton</t>
-  </si>
-  <si>
-    <t>Duncan Craick</t>
-  </si>
-  <si>
-    <t>2021 Formula Ultra</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Chris Sarbora</t>
-  </si>
-  <si>
-    <t>Jacob Monson</t>
-  </si>
-  <si>
-    <t>2021 Formula 2</t>
-  </si>
-  <si>
-    <t>2021 Open SS</t>
-  </si>
-  <si>
-    <t>2021 Open SBK</t>
-  </si>
-  <si>
-    <t>2021 600 SS</t>
-  </si>
-  <si>
     <t>Matt Staples</t>
   </si>
   <si>
@@ -608,34 +593,28 @@
     <t>CryMeA River</t>
   </si>
   <si>
+    <t>Chris Wilcox</t>
+  </si>
+  <si>
+    <t>Paul "Rearview" McComsey</t>
+  </si>
+  <si>
+    <t>Jolene "Angry Possum" Janacek</t>
+  </si>
+  <si>
+    <t>Seppi "T-Rex" Hutter</t>
+  </si>
+  <si>
+    <t>Scott "Mr. Hair" Harris</t>
+  </si>
+  <si>
+    <t>Dave "2-Chainz" Pearce</t>
+  </si>
+  <si>
+    <t>Chris "I'm Your Huckleberry" Sarbora</t>
+  </si>
+  <si>
     <t>Adam "The Robot" Robarts</t>
-  </si>
-  <si>
-    <t>Chris "I'm Your Huckleberry" Sarbora</t>
-  </si>
-  <si>
-    <t>Jolene "Angry Possum" Janacek</t>
-  </si>
-  <si>
-    <t>Dave "Down Here" Pearce</t>
-  </si>
-  <si>
-    <t>Scott "Mr. Hair" Harris</t>
-  </si>
-  <si>
-    <t>Joel "Pink's My Color" Ohman</t>
-  </si>
-  <si>
-    <t>Jeremy "Sunshine" Goddard</t>
-  </si>
-  <si>
-    <t>Seppi "T-Rex" Hutter</t>
-  </si>
-  <si>
-    <t>Paul "Racing's in the Rearview" McComsey</t>
-  </si>
-  <si>
-    <t>Chris "Bagel Badger" Wilcox</t>
   </si>
 </sst>
 </file>
@@ -645,7 +624,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +702,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1228,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1712,6 +1697,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2038,10 +2024,10 @@
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2141,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="164" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="138">
         <v>413</v>
@@ -2179,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="167" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="167" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="138">
         <v>522</v>
@@ -2265,10 +2251,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="139">
         <v>395</v>
@@ -2306,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="138">
         <v>262</v>
@@ -2350,7 +2336,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="138">
         <v>315</v>
@@ -2385,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="132" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="132" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
@@ -2429,10 +2415,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="80" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
@@ -2468,7 +2454,7 @@
         <v>284</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="30">
         <v>180</v>
@@ -2512,7 +2498,7 @@
         <v>107</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -2548,7 +2534,7 @@
         <v>343</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="31">
         <v>14</v>
@@ -2594,7 +2580,7 @@
         <v>84</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="140">
@@ -2632,7 +2618,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="31">
         <v>64</v>
@@ -2672,7 +2658,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="138">
         <v>143</v>
@@ -2710,7 +2696,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
@@ -2746,7 +2732,7 @@
         <v>78</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="30">
         <v>16</v>
@@ -2786,7 +2772,7 @@
         <v>97</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="30">
         <v>80</v>
@@ -2826,7 +2812,7 @@
         <v>769</v>
       </c>
       <c r="C19" s="132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
@@ -2862,7 +2848,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
@@ -2896,7 +2882,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="30">
         <v>61</v>
@@ -2936,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
@@ -2972,7 +2958,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -3011,7 +2997,7 @@
         <v>272</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
@@ -3047,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="140">
@@ -3085,7 +3071,7 @@
         <v>813</v>
       </c>
       <c r="C26" s="132" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
@@ -3119,7 +3105,7 @@
         <v>171</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -3156,7 +3142,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="135" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -3192,7 +3178,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="131" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="31"/>
@@ -3228,7 +3214,7 @@
         <v>230</v>
       </c>
       <c r="C30" s="132" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31"/>
@@ -3265,7 +3251,7 @@
         <v>204</v>
       </c>
       <c r="C31" s="131" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
@@ -3305,7 +3291,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -3338,7 +3324,7 @@
         <v>340</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="24">
         <v>53</v>
@@ -3376,7 +3362,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31">
@@ -3416,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="138">
         <v>112</v>
@@ -3456,7 +3442,7 @@
         <v>126</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="140">
@@ -3496,7 +3482,7 @@
         <v>90</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="140">
@@ -3534,7 +3520,7 @@
         <v>121</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D38" s="138">
         <v>94</v>
@@ -3572,7 +3558,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="132" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -3608,7 +3594,7 @@
         <v>901</v>
       </c>
       <c r="C40" s="132" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
@@ -3644,7 +3630,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="134" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24">
@@ -3684,7 +3670,7 @@
         <v>676</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
@@ -3722,7 +3708,7 @@
         <v>152</v>
       </c>
       <c r="C43" s="135" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -3758,7 +3744,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="131" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31">
@@ -3798,7 +3784,7 @@
         <v>181</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24">
@@ -3838,7 +3824,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31">
@@ -3876,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="C47" s="131" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
@@ -3909,7 +3895,7 @@
         <v>351</v>
       </c>
       <c r="C48" s="132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31">
@@ -3947,7 +3933,7 @@
         <v>819</v>
       </c>
       <c r="C49" s="132" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
@@ -3983,7 +3969,7 @@
         <v>92</v>
       </c>
       <c r="C50" s="131" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="30">
@@ -4021,7 +4007,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="131" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
@@ -4057,7 +4043,7 @@
         <v>77</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="140">
@@ -4095,7 +4081,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="131" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
@@ -4129,7 +4115,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="136" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
@@ -4165,7 +4151,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="131" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D55" s="31">
         <v>27</v>
@@ -4203,7 +4189,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
@@ -4236,7 +4222,7 @@
         <v>393</v>
       </c>
       <c r="C57" s="80" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
@@ -4269,7 +4255,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
@@ -4305,7 +4291,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D59" s="31"/>
       <c r="E59" s="31">
@@ -4345,7 +4331,7 @@
         <v>207</v>
       </c>
       <c r="C60" s="80" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -4381,7 +4367,7 @@
         <v>219</v>
       </c>
       <c r="C61" s="134" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
@@ -4414,7 +4400,7 @@
         <v>234</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
@@ -4450,7 +4436,7 @@
         <v>253</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="140">
@@ -4488,7 +4474,7 @@
         <v>166</v>
       </c>
       <c r="C64" s="132" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
@@ -4525,7 +4511,7 @@
         <v>914</v>
       </c>
       <c r="C65" s="132" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="31"/>
@@ -4561,7 +4547,7 @@
         <v>314</v>
       </c>
       <c r="C66" s="132" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D66" s="140">
         <v>32</v>
@@ -4599,7 +4585,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="133" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D67" s="140">
         <v>29</v>
@@ -4635,7 +4621,7 @@
         <v>247</v>
       </c>
       <c r="C68" s="132" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="31">
@@ -4673,7 +4659,7 @@
         <v>397</v>
       </c>
       <c r="C69" s="132" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="140">
@@ -4713,7 +4699,7 @@
         <v>965</v>
       </c>
       <c r="C70" s="132" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="31"/>
@@ -4749,7 +4735,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -4785,7 +4771,7 @@
         <v>339</v>
       </c>
       <c r="C72" s="131" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="30">
@@ -4829,7 +4815,7 @@
         <v>803</v>
       </c>
       <c r="C73" s="132" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
@@ -4865,7 +4851,7 @@
         <v>34</v>
       </c>
       <c r="C74" s="80" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -4901,7 +4887,7 @@
         <v>826</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
@@ -4935,7 +4921,7 @@
         <v>43</v>
       </c>
       <c r="C76" s="80" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24">
@@ -4977,7 +4963,7 @@
         <v>53</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="24">
@@ -5017,7 +5003,7 @@
         <v>61</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="31">
@@ -5062,7 +5048,7 @@
         <v>666</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
@@ -5098,7 +5084,7 @@
         <v>99</v>
       </c>
       <c r="C80" s="132" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="31"/>
@@ -5135,7 +5121,7 @@
         <v>124</v>
       </c>
       <c r="C81" s="133" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="140">
@@ -5173,7 +5159,7 @@
         <v>999</v>
       </c>
       <c r="C82" s="132" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="31"/>
@@ -5209,7 +5195,7 @@
         <v>149</v>
       </c>
       <c r="C83" s="132" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
@@ -5244,7 +5230,7 @@
         <v>104</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D84" s="31"/>
       <c r="E84" s="31">
@@ -5284,7 +5270,7 @@
         <v>494</v>
       </c>
       <c r="C85" s="137" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
@@ -5317,7 +5303,7 @@
         <v>33</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="140">
@@ -5355,7 +5341,7 @@
         <v>63</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
@@ -5388,7 +5374,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="24">
@@ -5427,8 +5413,8 @@
       <c r="B89" s="49">
         <v>810</v>
       </c>
-      <c r="C89" s="51" t="s">
-        <v>191</v>
+      <c r="C89" s="171" t="s">
+        <v>182</v>
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
@@ -5461,7 +5447,7 @@
         <v>182</v>
       </c>
       <c r="C90" s="134" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D90" s="24"/>
       <c r="E90" s="24">
@@ -5499,7 +5485,7 @@
         <v>806</v>
       </c>
       <c r="C91" s="132" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="31"/>
@@ -5533,7 +5519,7 @@
         <v>85</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D92" s="24"/>
       <c r="E92" s="140">
@@ -5569,7 +5555,7 @@
         <v>313</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="31">
@@ -5608,7 +5594,7 @@
         <v>432</v>
       </c>
       <c r="C94" s="51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
@@ -5644,7 +5630,7 @@
         <v>498</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
@@ -5677,7 +5663,7 @@
         <v>909</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
@@ -5713,7 +5699,7 @@
         <v>844</v>
       </c>
       <c r="C97" s="132" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="31"/>
@@ -5748,7 +5734,7 @@
         <v>39</v>
       </c>
       <c r="C98" s="147" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
@@ -5781,7 +5767,7 @@
         <v>924</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
@@ -5814,7 +5800,7 @@
         <v>27</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
@@ -5850,7 +5836,7 @@
         <v>202</v>
       </c>
       <c r="C101" s="134" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
@@ -5884,7 +5870,7 @@
         <v>777</v>
       </c>
       <c r="C102" s="80" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
@@ -5919,7 +5905,7 @@
         <v>117</v>
       </c>
       <c r="C103" s="80" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
@@ -5952,7 +5938,7 @@
         <v>868</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
@@ -5986,7 +5972,7 @@
         <v>412</v>
       </c>
       <c r="C105" s="80" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="31"/>
@@ -6020,7 +6006,7 @@
         <v>479</v>
       </c>
       <c r="C106" s="80" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D106" s="31"/>
       <c r="E106" s="31"/>
@@ -6054,7 +6040,7 @@
         <v>56</v>
       </c>
       <c r="C107" s="132" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D107" s="140">
         <f>1</f>
@@ -6092,7 +6078,7 @@
         <v>25</v>
       </c>
       <c r="C108" s="80" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D108" s="107"/>
       <c r="E108" s="107"/>
@@ -6126,7 +6112,7 @@
         <v>71</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
@@ -6178,7 +6164,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C1" s="56"/>
     </row>
@@ -6198,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6206,10 +6192,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="76">
         <f>21+36.5+26+32+37+25+35</f>
@@ -6225,7 +6211,7 @@
         <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="89">
         <f>31+17+41.5+38.5+22</f>
@@ -6241,7 +6227,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="95">
         <f>43+38+45.5</f>
@@ -6257,7 +6243,7 @@
         <v>769</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="89">
         <f>8.5+16+27+22.5+26</f>
@@ -6273,7 +6259,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="99" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5">
         <f>23+41.5+32.5</f>
@@ -6289,7 +6275,7 @@
         <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="95">
         <f>43+44</f>
@@ -6305,7 +6291,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="D10" s="89">
         <f>14.5+13+17+6+21</f>
@@ -6321,7 +6307,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="91">
         <f>2.5+8+17.5+7.5+34.5</f>
@@ -6337,7 +6323,7 @@
         <v>93</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="95">
         <f>31+22+0.5</f>
@@ -6353,7 +6339,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="94">
         <f>15+30</f>
@@ -6369,7 +6355,7 @@
         <v>965</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="89">
         <f>6+4.5+17.5+13.5</f>
@@ -6385,7 +6371,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D15" s="89">
         <f>21+14.5</f>
@@ -6401,7 +6387,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="89">
         <f>4.5+5.5+8.5+14</f>
@@ -6417,7 +6403,7 @@
         <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D17" s="5">
         <f>3.5+5.5+4.5+7</f>
@@ -6433,7 +6419,7 @@
         <v>676</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="89">
         <f>5.5+9.5</f>
@@ -6449,7 +6435,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5">
         <f>5+7</f>
@@ -6465,7 +6451,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D20" s="5">
         <f>3.5</f>
@@ -6498,7 +6484,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1" s="56"/>
     </row>
@@ -6518,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6526,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="23">
         <f>26.5+38.5+24.5+30+26.5+20+30</f>
@@ -6545,7 +6531,7 @@
         <v>171</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5">
         <f>40+30.5+20+37+37</f>
@@ -6561,7 +6547,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5">
         <f>17+37+30.5</f>
@@ -6577,7 +6563,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="95">
         <f>34+33</f>
@@ -6593,7 +6579,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="95">
         <f>18+21</f>
@@ -6609,7 +6595,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="95">
         <f>12.5+24.5</f>
@@ -6625,7 +6611,7 @@
         <v>272</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5">
         <f>25</f>
@@ -6641,7 +6627,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="94">
         <f>12.5</f>
@@ -6657,7 +6643,7 @@
         <v>844</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" s="91">
         <f>10</f>
@@ -6673,7 +6659,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D13" s="91">
         <f>5.5</f>
@@ -6689,7 +6675,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="91">
         <f>4</f>
@@ -6723,7 +6709,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -6743,7 +6729,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6754,7 +6740,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5">
         <f>41+45+42+48+39</f>
@@ -6770,7 +6756,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="D5" s="5">
         <f>18.5+32+35+29+44+16+21</f>
@@ -6786,7 +6772,7 @@
         <v>769</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5">
         <f>15.5+35+35+38+32</f>
@@ -6802,7 +6788,7 @@
         <v>152</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D7" s="5">
         <f>27+27+27.5+26</f>
@@ -6818,7 +6804,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5">
         <f>28.5+17+17+11+15.5</f>
@@ -6834,7 +6820,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5">
         <f>22+24</f>
@@ -6850,7 +6836,7 @@
         <v>901</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5">
         <f>2+10+14.5+5</f>
@@ -6866,7 +6852,7 @@
         <v>339</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D11" s="5">
         <f>18.5+0.5</f>
@@ -6882,7 +6868,7 @@
         <v>965</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5">
         <f>13+1+4.5</f>
@@ -6898,7 +6884,7 @@
         <v>914</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5">
         <f>3+5.5</f>
@@ -6914,7 +6900,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D14" s="5">
         <f>5</f>
@@ -6930,7 +6916,7 @@
         <v>676</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5">
         <f>4</f>
@@ -6963,7 +6949,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C1" s="56"/>
     </row>
@@ -6983,7 +6969,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6991,10 +6977,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="89">
         <f>1+30+38+26+47+44</f>
@@ -7010,7 +6996,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="94">
         <f>35+7+39+29+38</f>
@@ -7026,7 +7012,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="94">
         <f>40+32+24+3</f>
@@ -7042,7 +7028,7 @@
         <v>819</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5">
         <f>10+8+36</f>
@@ -7058,7 +7044,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="89">
         <f>53</f>
@@ -7074,7 +7060,7 @@
         <v>234</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5">
         <f>17+21</f>
@@ -7090,7 +7076,7 @@
         <v>171</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5">
         <f>27</f>
@@ -7106,7 +7092,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="89">
         <f>8+16</f>
@@ -7122,7 +7108,7 @@
         <v>207</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5">
         <f>19</f>
@@ -7138,7 +7124,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="94">
         <f>7+4+4</f>
@@ -7151,10 +7137,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="5">
         <f>13</f>
@@ -7170,7 +7156,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5">
         <f>10</f>
@@ -7186,7 +7172,7 @@
         <v>777</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D16" s="89">
         <f>6</f>
@@ -7202,7 +7188,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D17" s="5">
         <f>2</f>
@@ -7222,7 +7208,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -7236,7 +7222,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -7256,7 +7242,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="124" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -7267,7 +7253,7 @@
         <v>343</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="125">
         <f>40+29+42+36+47</f>
@@ -7283,7 +7269,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="90">
         <f>29+15+46</f>
@@ -7299,7 +7285,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="90">
         <f>14+24+12+39</f>
@@ -7315,7 +7301,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="90">
         <f>19+35+34</f>
@@ -7331,7 +7317,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="125">
         <f>22+10+4+18</f>
@@ -7347,7 +7333,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="90">
         <f>19+9+23</f>
@@ -7363,7 +7349,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="90">
         <f>40</f>
@@ -7379,7 +7365,7 @@
         <v>666</v>
       </c>
       <c r="C11" s="128" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D11" s="90">
         <f>33</f>
@@ -7395,7 +7381,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D12" s="90">
         <f>28</f>
@@ -7411,7 +7397,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="90">
         <f>24</f>
@@ -7427,7 +7413,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14" s="90">
         <f>24</f>
@@ -7443,7 +7429,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="90">
         <f>19</f>
@@ -7459,7 +7445,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" s="90">
         <f>2+14</f>
@@ -7475,7 +7461,7 @@
         <v>87</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D17" s="90">
         <f>6+8</f>
@@ -7491,7 +7477,7 @@
         <v>498</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D18" s="90">
         <f>11</f>
@@ -7507,7 +7493,7 @@
         <v>999</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D19" s="129">
         <f>5</f>
@@ -7523,7 +7509,7 @@
         <v>339</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D20" s="129">
         <f>3</f>
@@ -7556,7 +7542,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7575,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -7586,7 +7572,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="89">
         <f>25+42.5+45.5+44.5+46+45.5</f>
@@ -7602,7 +7588,7 @@
         <v>272</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="89">
         <f>44.5+38.5+37.5+45.5+35.5</f>
@@ -7618,7 +7604,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="89">
         <f>38+10.5+27.5+24+28+26+29.5</f>
@@ -7634,7 +7620,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="89">
         <f>32.5+32.5+24+11+28.5+42.5</f>
@@ -7650,7 +7636,7 @@
         <v>901</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="91">
         <f>13+19.5+20+14.5+8+12.5+24.5</f>
@@ -7666,7 +7652,7 @@
         <v>914</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="91">
         <f>22.5+27+9</f>
@@ -7682,7 +7668,7 @@
         <v>213</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="91">
         <f>8.5+5.5+8+4.5+19.5</f>
@@ -7698,7 +7684,7 @@
         <v>339</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D11" s="89">
         <f>8+6+14.5+4+8</f>
@@ -7714,7 +7700,7 @@
         <v>810</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D12" s="5">
         <f>13.5+5+5.5</f>
@@ -7730,7 +7716,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5">
         <f>16</f>
@@ -7746,7 +7732,7 @@
         <v>806</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D14" s="91">
         <f>8.5+5+2</f>
@@ -7762,7 +7748,7 @@
         <v>924</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5">
         <f>9</f>
@@ -7778,7 +7764,7 @@
         <v>868</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D16" s="5">
         <f>2.5+1</f>
@@ -7794,7 +7780,7 @@
         <v>412</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D17" s="89">
         <f>1.5+2</f>
@@ -7810,7 +7796,7 @@
         <v>479</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D18" s="89">
         <f>3</f>
@@ -7844,7 +7830,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -7864,7 +7850,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -7875,7 +7861,7 @@
         <v>213</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="117">
         <f>16+25+29+34+31</f>
@@ -7891,7 +7877,7 @@
         <v>676</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="118">
         <f>0.5+38+39+41</f>
@@ -7907,7 +7893,7 @@
         <v>393</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D6" s="11">
         <f>31.5+29+25</f>
@@ -7923,7 +7909,7 @@
         <v>219</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11">
         <f>11+28+38</f>
@@ -7939,7 +7925,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D8" s="20">
         <f>37.5</f>
@@ -7955,7 +7941,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D9" s="14">
         <f>8.5</f>
@@ -7988,7 +7974,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" s="56"/>
     </row>
@@ -8008,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -8019,7 +8005,7 @@
         <v>230</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="91">
         <f>19+38.5+31+27.5+30.5</f>
@@ -8035,7 +8021,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="95">
         <f>0.5+31.5+38+34+19</f>
@@ -8051,7 +8037,7 @@
         <v>826</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D6" s="89">
         <f>25.5+25</f>
@@ -8067,7 +8053,7 @@
         <v>494</v>
       </c>
       <c r="C7" s="120" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5">
         <v>34</v>
@@ -8082,7 +8068,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5">
         <f>19</f>
@@ -8098,7 +8084,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D9" s="5">
         <v>0.5</v>
@@ -8134,7 +8120,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -8154,7 +8140,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -8165,7 +8151,7 @@
         <v>829</v>
       </c>
       <c r="C4" s="149" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D4" s="149">
         <f>14+25+17+25+30+37+37+22+22+8+1</f>
@@ -8181,7 +8167,7 @@
         <v>907</v>
       </c>
       <c r="C5" s="153" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D5" s="153">
         <f>40+17+43+42+36+38</f>
@@ -8197,7 +8183,7 @@
         <v>800</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D6" s="154">
         <f>19+38+37+20+29</f>
@@ -8213,7 +8199,7 @@
         <v>864</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D7" s="39">
         <f>29+31+33+31</f>
@@ -8229,7 +8215,7 @@
         <v>999</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D8" s="22">
         <f>27+33+30</f>
@@ -8245,7 +8231,7 @@
         <v>918</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D9" s="22">
         <f>25+24</f>
@@ -8261,7 +8247,7 @@
         <v>869</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" s="39">
         <f>35</f>
@@ -8277,7 +8263,7 @@
         <v>913</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D11" s="22">
         <f>31</f>
@@ -8293,7 +8279,7 @@
         <v>942</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D12" s="22">
         <f>11+19</f>
@@ -8309,7 +8295,7 @@
         <v>915</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D13" s="22">
         <f>25</f>
@@ -8325,7 +8311,7 @@
         <v>823</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D14" s="22">
         <f>15</f>
@@ -8364,7 +8350,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C1" s="56"/>
     </row>
@@ -8384,7 +8370,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -8395,7 +8381,7 @@
         <v>900</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D4" s="156">
         <f>22+25+39+37+33+32+42+41+41+35+47+41</f>
@@ -8411,7 +8397,7 @@
         <v>905</v>
       </c>
       <c r="C5" s="155" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D5" s="155">
         <f>27+13+27+44+17+35+25+25+25+34+34+42</f>
@@ -8427,7 +8413,7 @@
         <v>913</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D6" s="154">
         <f>43+30+1+1+23+10+19+30+30+48+40+1</f>
@@ -8443,7 +8429,7 @@
         <v>827</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D7" s="38">
         <f>23+3+23+14+10+27+24+16+1+20+29+35</f>
@@ -8459,7 +8445,7 @@
         <v>916</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" s="38">
         <f>12+28+10+8+12+13+13+29+20+16+30</f>
@@ -8475,7 +8461,7 @@
         <v>807</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="22">
         <f>41+48+51+38</f>
@@ -8491,7 +8477,7 @@
         <v>969</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D10" s="38">
         <f>18+41+35+1+42+38</f>
@@ -8507,7 +8493,7 @@
         <v>824</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" s="39">
         <f>37+55+19+45</f>
@@ -8523,7 +8509,7 @@
         <v>802</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" s="39">
         <f>32+34+32</f>
@@ -8539,7 +8525,7 @@
         <v>907</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D13" s="38">
         <f>5+28+17+1+22+14</f>
@@ -8555,7 +8541,7 @@
         <v>815</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D14" s="22">
         <f>8+5+7+10+28+29</f>
@@ -8571,7 +8557,7 @@
         <v>903</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D15" s="39">
         <f>1+1+7+10+10+19+24</f>
@@ -8587,7 +8573,7 @@
         <v>816</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D16" s="39">
         <f>20+14+10+8+4+15</f>
@@ -8603,7 +8589,7 @@
         <v>954</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D17" s="22">
         <f>7+9+23+19</f>
@@ -8619,7 +8605,7 @@
         <v>821</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D18" s="39">
         <f>50</f>
@@ -8635,7 +8621,7 @@
         <v>810</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D19" s="22">
         <f>20+28</f>
@@ -8651,7 +8637,7 @@
         <v>911</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D20" s="38">
         <f>5+6+13+14</f>
@@ -8667,7 +8653,7 @@
         <v>949</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D21" s="22">
         <f>18+10</f>
@@ -8683,7 +8669,7 @@
         <v>808</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D22" s="38">
         <f>9+18</f>
@@ -8699,7 +8685,7 @@
         <v>982</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D23" s="22">
         <f>3+6</f>
@@ -8715,7 +8701,7 @@
         <v>870</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D24" s="22">
         <f>7</f>
@@ -8731,7 +8717,7 @@
         <v>977</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D25" s="22">
         <f>4+3</f>
@@ -8747,7 +8733,7 @@
         <v>999</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D26" s="22">
         <f>5</f>
@@ -8763,7 +8749,7 @@
         <v>812</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D27" s="38">
         <f>2</f>
@@ -8779,7 +8765,7 @@
         <v>818</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="39">
         <f>1</f>
@@ -8798,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F973F0-A220-4A7F-B33C-4128E64EDBDD}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -8813,7 +8799,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8833,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -8841,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="105">
         <f>94+78+100+91+93+49+17</f>
@@ -8860,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="D5" s="95">
         <f>41+78+42+90+77+39+1+45</f>
@@ -8873,10 +8859,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="89">
         <f>63+77+64+55+73+36+27</f>
@@ -8892,7 +8878,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D7" s="95">
         <f>63+50+65+76+65+52+1+22</f>
@@ -8908,7 +8894,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="95">
         <f>45+49+54+31+62+42+32</f>
@@ -8924,7 +8910,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="95">
         <f>41+31+45+64+24+25+31+1</f>
@@ -8940,7 +8926,7 @@
         <v>284</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="95">
         <f>30+13+12+44+12+33+26+10</f>
@@ -8956,7 +8942,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="95">
         <f>18+15+21+34+18+20+17</f>
@@ -8972,7 +8958,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="95">
         <f>38+74</f>
@@ -8988,7 +8974,7 @@
         <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="95">
         <f>48+1+45</f>
@@ -9004,7 +8990,7 @@
         <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="95">
         <f>12+5+26+16+21</f>
@@ -9020,7 +9006,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5">
         <f>15+11+38</f>
@@ -9036,7 +9022,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="95">
         <f>18+24+19</f>
@@ -9052,7 +9038,7 @@
         <v>340</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5">
         <f>6+20+4+17+6</f>
@@ -9068,7 +9054,7 @@
         <v>314</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D18" s="94">
         <f>10+7+8+3+4</f>
@@ -9084,7 +9070,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D19" s="5">
         <f>14+8+7</f>
@@ -9100,7 +9086,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="113" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="5">
         <f>14+13</f>
@@ -9116,7 +9102,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5">
         <f>9+7</f>
@@ -9132,7 +9118,7 @@
         <v>343</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5">
         <v>14</v>
@@ -9147,7 +9133,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D23" s="94">
         <f>1</f>
@@ -9185,7 +9171,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -9205,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -9216,7 +9202,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="158" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="159">
         <f>33+41+31+32</f>
@@ -9232,7 +9218,7 @@
         <v>97</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="153">
         <f>34+44+39</f>
@@ -9248,7 +9234,7 @@
         <v>314</v>
       </c>
       <c r="C6" s="151" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" s="151">
         <f>27+28+26</f>
@@ -9264,7 +9250,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D7" s="22">
         <f>23+26</f>
@@ -9280,7 +9266,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="22">
         <f>37</f>
@@ -9296,7 +9282,7 @@
         <v>397</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" s="22">
         <f>22</f>
@@ -9312,7 +9298,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="22">
         <f>1+21</f>
@@ -9328,7 +9314,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D11" s="22">
         <f>21</f>
@@ -9344,7 +9330,7 @@
         <v>432</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D12" s="22">
         <f>17+1</f>
@@ -9360,7 +9346,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D13" s="22">
         <f>12</f>
@@ -9397,7 +9383,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -9417,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -9428,7 +9414,7 @@
         <v>339</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D4" s="161">
         <f>36+31+26+30+30+36</f>
@@ -9444,7 +9430,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="153" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="153">
         <f>38+39+37</f>
@@ -9460,7 +9446,7 @@
         <v>126</v>
       </c>
       <c r="C6" s="151" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="151">
         <f>37</f>
@@ -9476,7 +9462,7 @@
         <v>289</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D7" s="22">
         <f>32</f>
@@ -9492,7 +9478,7 @@
         <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D8" s="22">
         <f>25</f>
@@ -9511,8 +9497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EAF67F-9130-4F75-9F18-9A28E1648B8B}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -9526,7 +9512,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -9547,7 +9533,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -9558,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="D4" s="106">
         <f>55+43+60+53+51+55+22</f>
@@ -9574,7 +9560,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="94">
         <f>37+47+35+44+42</f>
@@ -9590,7 +9576,7 @@
         <v>284</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="94">
         <f>27+20+25+30+28+27+27</f>
@@ -9606,7 +9592,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="94">
         <f>14+30+22+8+13+17+38</f>
@@ -9622,7 +9608,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D8" s="94">
         <f>1+1+53+40+38+1</f>
@@ -9638,7 +9624,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5">
         <f>28+25+32+45</f>
@@ -9654,7 +9640,7 @@
         <v>340</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5">
         <f>32+21+23+37</f>
@@ -9670,7 +9656,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="94">
         <f>32+36+42</f>
@@ -9686,7 +9672,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5">
         <f>37+46+1</f>
@@ -9702,7 +9688,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5">
         <f>33+48</f>
@@ -9718,7 +9704,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="D14" s="94">
         <f>20+11+15+15+19</f>
@@ -9734,7 +9720,7 @@
         <v>126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="94">
         <f>12+25+12+10+16</f>
@@ -9750,7 +9736,7 @@
         <v>351</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="94">
         <f>6+7+7+32</f>
@@ -9766,7 +9752,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="94">
         <f>48</f>
@@ -9782,7 +9768,7 @@
         <v>78</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="94">
         <f>23+23</f>
@@ -9798,7 +9784,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="94">
         <f>42</f>
@@ -9814,7 +9800,7 @@
         <v>343</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="94">
         <f>10+19+12+1</f>
@@ -9830,7 +9816,7 @@
         <v>253</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="94">
         <f>5+13+14</f>
@@ -9846,7 +9832,7 @@
         <v>397</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D22" s="94">
         <f>7+9+1+13</f>
@@ -9862,7 +9848,7 @@
         <v>181</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="5">
         <f>10+7+1+10</f>
@@ -9878,7 +9864,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="D24" s="5">
         <f>11+6+10</f>
@@ -9894,7 +9880,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D25" s="5">
         <f>9+17</f>
@@ -9910,7 +9896,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" s="94">
         <f>17+8</f>
@@ -9926,7 +9912,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D27" s="95">
         <f>8+15+1</f>
@@ -9942,7 +9928,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5">
         <f>20+1</f>
@@ -9958,7 +9944,7 @@
         <v>97</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5">
         <f>18+1</f>
@@ -9974,7 +9960,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5">
         <f>17</f>
@@ -9990,7 +9976,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="5">
         <f>3+1+12</f>
@@ -10006,7 +9992,7 @@
         <v>247</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32" s="94">
         <f>9+1+5</f>
@@ -10022,7 +10008,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5">
         <f>5+10</f>
@@ -10038,7 +10024,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D34" s="5">
         <f>14</f>
@@ -10054,7 +10040,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D35" s="5">
         <f>8+4</f>
@@ -10070,7 +10056,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D36" s="5">
         <f>6</f>
@@ -10086,7 +10072,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D37" s="5">
         <f>6</f>
@@ -10102,7 +10088,7 @@
         <v>339</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D38" s="5">
         <f>5</f>
@@ -10118,7 +10104,7 @@
         <v>313</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D39" s="94">
         <f>4</f>
@@ -10134,7 +10120,7 @@
         <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40" s="94">
         <f>3</f>
@@ -10150,7 +10136,7 @@
         <v>182</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D41" s="5">
         <f>2</f>
@@ -10166,7 +10152,7 @@
         <v>104</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D42" s="5">
         <f>1+1</f>
@@ -10185,8 +10171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F1BB7C-E575-4B1B-B00C-7B5AD612FF2A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -10200,7 +10186,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -10220,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -10228,10 +10214,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="114">
         <f>45+44+45+48+44</f>
@@ -10244,10 +10230,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="89">
         <f>27+37+38+41+42+31</f>
@@ -10263,7 +10249,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="95">
         <f>38+31+22+42+25+26</f>
@@ -10279,7 +10265,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="95">
         <f>21+27+35+20+35+37</f>
@@ -10295,7 +10281,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="95">
         <f>13+16+10+29+16+19+21</f>
@@ -10311,7 +10297,7 @@
         <v>284</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="95">
         <f>22+6+13+24+13+29+9</f>
@@ -10327,7 +10313,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="95">
         <f>7+7+19+14+16</f>
@@ -10343,7 +10329,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="95">
         <f>17+35</f>
@@ -10359,7 +10345,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D12" s="95">
         <f>32+9</f>
@@ -10375,7 +10361,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5">
         <f>24+12</f>
@@ -10391,7 +10377,7 @@
         <v>314</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" s="94">
         <f>10+4+14+6</f>
@@ -10407,7 +10393,7 @@
         <v>432</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15" s="5">
         <f>10</f>
@@ -10423,7 +10409,7 @@
         <v>343</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5">
         <f>10</f>
@@ -10439,7 +10425,7 @@
         <v>397</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
@@ -10454,7 +10440,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D18" s="94">
         <f>1</f>
@@ -10474,7 +10460,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -10488,7 +10474,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -10508,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -10519,7 +10505,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D4" s="15">
         <f>22+18+41+44+25+36+40</f>
@@ -10532,10 +10518,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="10">
         <f>1+34+48+43+43+33</f>
@@ -10548,10 +10534,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="7">
         <f>33+41+30+36+30+27</f>
@@ -10567,7 +10553,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10">
         <f>40+28+16+31+15+17</f>
@@ -10583,7 +10569,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
         <f>23+20+37+20+25+22</f>
@@ -10599,7 +10585,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7">
         <f>13+10+21+11+15</f>
@@ -10615,7 +10601,7 @@
         <v>284</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11">
         <f>13+26+8+20</f>
@@ -10631,7 +10617,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
         <f>27+30</f>
@@ -10647,7 +10633,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="11">
         <f>35</f>
@@ -10663,7 +10649,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="11">
         <f>16+11</f>
@@ -10679,7 +10665,7 @@
         <v>343</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11">
         <f>5+12</f>
@@ -10695,7 +10681,7 @@
         <v>314</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D15" s="45">
         <f>6+8</f>
@@ -10711,7 +10697,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="11">
         <f>9</f>
@@ -10727,7 +10713,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11">
         <f>7</f>
@@ -10743,7 +10729,7 @@
         <v>432</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D18" s="14">
         <f>3</f>
@@ -10762,7 +10748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8094DBD9-A570-44A7-B9ED-3EF90CCF9D57}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -10777,7 +10763,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -10797,7 +10783,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -10808,7 +10794,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="111" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D4" s="112">
         <f>48+40+42+47+54+65+51</f>
@@ -10824,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="D5" s="94">
         <f>61+47+60+54+47+1+58</f>
@@ -10840,7 +10826,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="95">
         <f>54+1+53+36+41+58+45</f>
@@ -10856,7 +10842,7 @@
         <v>284</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="94">
         <f>33+17+31+31+52+30</f>
@@ -10872,7 +10858,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="95">
         <f>43+47+37+35</f>
@@ -10888,7 +10874,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="95">
         <f>16+29+32+2+16+27+26</f>
@@ -10904,7 +10890,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="D10" s="89">
         <f>23+9+22+19+22+47</f>
@@ -10920,7 +10906,7 @@
         <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="95">
         <f>29+25+22+24+40</f>
@@ -10936,7 +10922,7 @@
         <v>343</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D12" s="95">
         <f>26+15+26+4+30+20</f>
@@ -10952,7 +10938,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="94">
         <f>38+37+33</f>
@@ -10968,7 +10954,7 @@
         <v>126</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="95">
         <f>1+19+16+3+22+23</f>
@@ -10984,7 +10970,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="D15" s="95">
         <f>11+12+7+19+20+12</f>
@@ -11000,7 +10986,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="5">
         <f>28+41</f>
@@ -11016,7 +11002,7 @@
         <v>351</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" s="89">
         <f>12+15+8+13+11</f>
@@ -11032,7 +11018,7 @@
         <v>92</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D18" s="95">
         <f>14+12+14+15</f>
@@ -11048,7 +11034,7 @@
         <v>247</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D19" s="89">
         <f>15+19+11</f>
@@ -11064,7 +11050,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="5">
         <f>5+13+14+13</f>
@@ -11080,7 +11066,7 @@
         <v>253</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="89">
         <f>13+11+18</f>
@@ -11096,7 +11082,7 @@
         <v>73</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="5">
         <f>42</f>
@@ -11112,7 +11098,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="94">
         <f>20+19</f>
@@ -11128,7 +11114,7 @@
         <v>181</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5">
         <f>9+9+11+9</f>
@@ -11144,7 +11130,7 @@
         <v>397</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D25" s="89">
         <f>10+10+5+7</f>
@@ -11160,7 +11146,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5">
         <f>8+17</f>
@@ -11176,7 +11162,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" s="89">
         <f>4+6+6+8</f>
@@ -11192,7 +11178,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D28" s="5">
         <f>13+8</f>
@@ -11208,7 +11194,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D29" s="89">
         <f>7+6+2+6</f>
@@ -11224,7 +11210,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D30" s="95">
         <f>6+4+9</f>
@@ -11240,7 +11226,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31" s="5">
         <f>17</f>
@@ -11256,7 +11242,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D32" s="5">
         <f>6+10</f>
@@ -11272,7 +11258,7 @@
         <v>182</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D33" s="5">
         <f>13</f>
@@ -11288,7 +11274,7 @@
         <v>124</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5">
         <f>12+1</f>
@@ -11304,7 +11290,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D35" s="5">
         <f>5+6</f>
@@ -11320,7 +11306,7 @@
         <v>666</v>
       </c>
       <c r="C36" s="120" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D36" s="5">
         <f>10</f>
@@ -11336,7 +11322,7 @@
         <v>339</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D37" s="5">
         <f>3+3+3</f>
@@ -11352,7 +11338,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D38" s="5">
         <f>4+5</f>
@@ -11368,7 +11354,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="120" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5">
         <f>9</f>
@@ -11384,7 +11370,7 @@
         <v>313</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D40" s="89">
         <f>8</f>
@@ -11400,7 +11386,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D41" s="5">
         <f>7</f>
@@ -11416,7 +11402,7 @@
         <v>117</v>
       </c>
       <c r="C42" s="120" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D42" s="5">
         <f>4</f>
@@ -11435,8 +11421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1629173-2079-43FC-BAFD-1E41AA404740}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -11450,7 +11436,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -11470,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -11481,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="D4" s="94">
         <f>57+1+56+54+50+59+47</f>
@@ -11497,7 +11483,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D5" s="89">
         <f>39+38+49+47+43+52+54</f>
@@ -11513,7 +11499,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="89">
         <f>44+38+1+37+41</f>
@@ -11529,7 +11515,7 @@
         <v>284</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="94">
         <f>29+13+31+27+36+19</f>
@@ -11545,7 +11531,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="94">
         <f>12+21+26+46+36</f>
@@ -11561,7 +11547,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="89">
         <f>34+22+43+36+1</f>
@@ -11577,7 +11563,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="89">
         <f>22+45+15+12+24+9</f>
@@ -11593,7 +11579,7 @@
         <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="89">
         <f>1+28+22+41+31</f>
@@ -11609,7 +11595,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="89">
         <f>25+24+27+26</f>
@@ -11625,7 +11611,7 @@
         <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="5">
         <f>33+41</f>
@@ -11641,7 +11627,7 @@
         <v>343</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="95">
         <f>19+11+13+31</f>
@@ -11657,7 +11643,7 @@
         <v>126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="95">
         <f>1+13+19+18+1+16</f>
@@ -11673,7 +11659,7 @@
         <v>351</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="94">
         <f>7+32+3+9+7</f>
@@ -11689,7 +11675,7 @@
         <v>340</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5">
         <f>18+16+22</f>
@@ -11705,7 +11691,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="D18" s="89">
         <f>16+10+10+11+7</f>
@@ -11721,7 +11707,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="94">
         <f>50</f>
@@ -11737,7 +11723,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" s="95">
         <f>9+17+9+13</f>
@@ -11753,7 +11739,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="D21" s="89">
         <f>10+6+7+3+11+8</f>
@@ -11769,7 +11755,7 @@
         <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5">
         <f>32</f>
@@ -11785,7 +11771,7 @@
         <v>253</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D23" s="89">
         <f>8+5+13</f>
@@ -11801,7 +11787,7 @@
         <v>181</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5">
         <f>4+6+16</f>
@@ -11817,7 +11803,7 @@
         <v>397</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D25" s="94">
         <f>6+7+4+4</f>
@@ -11833,7 +11819,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="5">
         <f>10+11</f>
@@ -11849,7 +11835,7 @@
         <v>247</v>
       </c>
       <c r="C27" s="90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D27" s="94">
         <f>11+8</f>
@@ -11865,7 +11851,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5">
         <f>18+1</f>
@@ -11881,7 +11867,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5">
         <f>8+5</f>
@@ -11897,7 +11883,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D30" s="5">
         <f>9</f>
@@ -11913,7 +11899,7 @@
         <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D31" s="5">
         <f>8</f>
@@ -11929,7 +11915,7 @@
         <v>104</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D32" s="94">
         <f>4+2+2</f>
@@ -11945,7 +11931,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D33" s="5">
         <f>7</f>
@@ -11961,7 +11947,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" s="5">
         <f>6+1</f>
@@ -11977,7 +11963,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="96" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D35" s="5">
         <f>5+1</f>
@@ -11993,7 +11979,7 @@
         <v>313</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D36" s="89">
         <f>5</f>
@@ -12009,14 +11995,14 @@
         <v>61</v>
       </c>
       <c r="C37" s="96" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D37" s="5">
         <f>4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A38" s="49">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -12025,7 +12011,7 @@
         <v>339</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D38" s="5">
         <f>3</f>
@@ -12037,6 +12023,7 @@
     <sortCondition descending="1" ref="D4:D38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12059,7 +12046,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C1" s="50"/>
     </row>
@@ -12079,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -12090,7 +12077,7 @@
         <v>813</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="19">
         <f>43+25+40+39+6+35+32</f>
@@ -12103,10 +12090,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="10">
         <f>15+15+21+30+21</f>
@@ -12122,7 +12109,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="11">
         <f>32+20+39</f>
@@ -12138,7 +12125,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="20">
         <f>50+34</f>
@@ -12154,7 +12141,7 @@
         <v>819</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" s="10">
         <f>7+19+1+26</f>
@@ -12170,7 +12157,7 @@
         <v>803</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <f>22+24</f>
@@ -12186,7 +12173,7 @@
         <v>999</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="10">
         <f>1+6+26</f>
@@ -12202,7 +12189,7 @@
         <v>230</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
         <f>27</f>
@@ -12218,7 +12205,7 @@
         <v>909</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D12" s="14">
         <f>4</f>
@@ -12251,7 +12238,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C1" s="56"/>
     </row>
@@ -12271,7 +12258,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -12279,10 +12266,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="76">
         <f>32+32+26+33+46+38</f>
@@ -12295,10 +12282,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="90" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="89">
         <f>39+10+17+13+30</f>
@@ -12314,7 +12301,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5">
         <f>40+33+17</f>
@@ -12330,7 +12317,7 @@
         <v>207</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5">
         <f>22+37</f>
@@ -12346,7 +12333,7 @@
         <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="95">
         <f>21+37</f>
@@ -12362,7 +12349,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="94">
         <f>1+21+27+1</f>
@@ -12378,7 +12365,7 @@
         <v>234</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5">
         <f>16+22</f>
@@ -12394,7 +12381,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5">
         <f>9+5</f>
@@ -12410,7 +12397,7 @@
         <v>803</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5">
         <f>12</f>
@@ -12426,7 +12413,7 @@
         <v>909</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5">
         <f>6</f>
